--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H2">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I2">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J2">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.0518796666667</v>
+        <v>87.77304733333334</v>
       </c>
       <c r="N2">
-        <v>372.155639</v>
+        <v>263.319142</v>
       </c>
       <c r="O2">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="P2">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="Q2">
-        <v>314.598502729152</v>
+        <v>26.458044069018</v>
       </c>
       <c r="R2">
-        <v>2831.386524562368</v>
+        <v>238.122396621162</v>
       </c>
       <c r="S2">
-        <v>0.007263906663248682</v>
+        <v>0.0006248440837188155</v>
       </c>
       <c r="T2">
-        <v>0.007263906663248683</v>
+        <v>0.0006248440837188156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H3">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I3">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J3">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>650.55484</v>
       </c>
       <c r="O3">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="P3">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="Q3">
-        <v>549.9408235681822</v>
+        <v>65.36709976836001</v>
       </c>
       <c r="R3">
-        <v>4949.46741211364</v>
+        <v>588.3038979152401</v>
       </c>
       <c r="S3">
-        <v>0.01269783161094244</v>
+        <v>0.001543736394631882</v>
       </c>
       <c r="T3">
-        <v>0.01269783161094244</v>
+        <v>0.001543736394631882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H4">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I4">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J4">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>95.67277033333335</v>
+        <v>134.100637</v>
       </c>
       <c r="N4">
-        <v>287.018311</v>
+        <v>402.301911</v>
       </c>
       <c r="O4">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267023</v>
       </c>
       <c r="P4">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267022</v>
       </c>
       <c r="Q4">
-        <v>242.6284098208979</v>
+        <v>40.422893715369</v>
       </c>
       <c r="R4">
-        <v>2183.655688388081</v>
+        <v>363.8060434383211</v>
       </c>
       <c r="S4">
-        <v>0.005602156741059842</v>
+        <v>0.0009546437340173449</v>
       </c>
       <c r="T4">
-        <v>0.005602156741059842</v>
+        <v>0.0009546437340173449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>225.346153</v>
       </c>
       <c r="I5">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J5">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.0518796666667</v>
+        <v>87.77304733333334</v>
       </c>
       <c r="N5">
-        <v>372.155639</v>
+        <v>263.319142</v>
       </c>
       <c r="O5">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="P5">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="Q5">
-        <v>9318.204618434085</v>
+        <v>6593.106184551192</v>
       </c>
       <c r="R5">
-        <v>83863.84156590677</v>
+        <v>59337.95566096073</v>
       </c>
       <c r="S5">
-        <v>0.2151522274587287</v>
+        <v>0.1557055155702463</v>
       </c>
       <c r="T5">
-        <v>0.2151522274587287</v>
+        <v>0.1557055155702463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>225.346153</v>
       </c>
       <c r="I6">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J6">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>650.55484</v>
       </c>
       <c r="O6">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="P6">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="Q6">
         <v>16288.89227883673</v>
@@ -818,10 +818,10 @@
         <v>146600.0305095305</v>
       </c>
       <c r="S6">
-        <v>0.3761015775178322</v>
+        <v>0.3846851998664005</v>
       </c>
       <c r="T6">
-        <v>0.3761015775178322</v>
+        <v>0.3846851998664005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>225.346153</v>
       </c>
       <c r="I7">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J7">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>95.67277033333335</v>
+        <v>134.100637</v>
       </c>
       <c r="N7">
-        <v>287.018311</v>
+        <v>402.301911</v>
       </c>
       <c r="O7">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267023</v>
       </c>
       <c r="P7">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267022</v>
       </c>
       <c r="Q7">
-        <v>7186.496913823066</v>
+        <v>10073.02088759982</v>
       </c>
       <c r="R7">
-        <v>64678.4722244076</v>
+        <v>90657.18798839839</v>
       </c>
       <c r="S7">
-        <v>0.1659322672068718</v>
+        <v>0.2378886167992692</v>
       </c>
       <c r="T7">
-        <v>0.1659322672068719</v>
+        <v>0.2378886167992691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H8">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I8">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J8">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.0518796666667</v>
+        <v>87.77304733333334</v>
       </c>
       <c r="N8">
-        <v>372.155639</v>
+        <v>263.319142</v>
       </c>
       <c r="O8">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="P8">
-        <v>0.2841471011719914</v>
+        <v>0.200063793449224</v>
       </c>
       <c r="Q8">
-        <v>2673.557178840664</v>
+        <v>1851.823756988864</v>
       </c>
       <c r="R8">
-        <v>24062.01460956598</v>
+        <v>16666.41381289978</v>
       </c>
       <c r="S8">
-        <v>0.06173096705001408</v>
+        <v>0.0437334337952589</v>
       </c>
       <c r="T8">
-        <v>0.06173096705001409</v>
+        <v>0.04373343379525891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H9">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I9">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J9">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>650.55484</v>
       </c>
       <c r="O9">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="P9">
-        <v>0.4967095821418112</v>
+        <v>0.4942765199240737</v>
       </c>
       <c r="Q9">
-        <v>4673.570357243841</v>
+        <v>4575.105701719512</v>
       </c>
       <c r="R9">
-        <v>42062.13321519457</v>
+        <v>41175.9513154756</v>
       </c>
       <c r="S9">
-        <v>0.1079101730130366</v>
+        <v>0.1080475836630413</v>
       </c>
       <c r="T9">
-        <v>0.1079101730130366</v>
+        <v>0.1080475836630413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H10">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I10">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J10">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>95.67277033333335</v>
+        <v>134.100637</v>
       </c>
       <c r="N10">
-        <v>287.018311</v>
+        <v>402.301911</v>
       </c>
       <c r="O10">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267023</v>
       </c>
       <c r="P10">
-        <v>0.2191433166861973</v>
+        <v>0.3056596866267022</v>
       </c>
       <c r="Q10">
-        <v>2061.932657784537</v>
+        <v>2829.236912338944</v>
       </c>
       <c r="R10">
-        <v>18557.39392006083</v>
+        <v>25463.13221105049</v>
       </c>
       <c r="S10">
-        <v>0.04760889273826561</v>
+        <v>0.06681642609341573</v>
       </c>
       <c r="T10">
-        <v>0.04760889273826562</v>
+        <v>0.06681642609341573</v>
       </c>
     </row>
   </sheetData>
